--- a/config_debug/auto_control_system_server.xlsx
+++ b/config_debug/auto_control_system_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -208,6 +208,10 @@
   </si>
   <si>
     <t>xxl_xiyou_award</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxl_sanguo_award</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -664,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -783,6 +787,15 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1155,7 +1168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/auto_control_system_server.xlsx
+++ b/config_debug/auto_control_system_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -46,172 +46,186 @@
     <t>启用类型</t>
   </si>
   <si>
+    <t>vip_set</t>
+  </si>
+  <si>
+    <t>xxl_shuihu_award</t>
+  </si>
+  <si>
+    <t>vip_set2</t>
+  </si>
+  <si>
+    <t>default_set</t>
+  </si>
+  <si>
+    <t>tantanle_award</t>
+  </si>
+  <si>
+    <t>为空不处理</t>
+  </si>
+  <si>
+    <t>游戏类型</t>
+  </si>
+  <si>
+    <t>zjd_award</t>
+  </si>
+  <si>
+    <t>by_award</t>
+  </si>
+  <si>
+    <t>model_id|模式id</t>
+  </si>
+  <si>
+    <t>permission_key</t>
+  </si>
+  <si>
+    <t>vip_deal_id|启用类型</t>
+  </si>
+  <si>
+    <t>max_award_deal_id</t>
+  </si>
+  <si>
+    <t>set_id</t>
+  </si>
+  <si>
+    <t>start_vip_level|vip等级</t>
+  </si>
+  <si>
+    <t>end_vip_level|vip等级</t>
+  </si>
+  <si>
+    <t>module_id</t>
+  </si>
+  <si>
+    <t>start_value|起始赢金值&gt;</t>
+  </si>
+  <si>
+    <t>end_value|结束赢金值&lt;=</t>
+  </si>
+  <si>
+    <t>discount|折扣</t>
+  </si>
+  <si>
+    <t>|VIP等级</t>
+  </si>
+  <si>
+    <t>|vip充值</t>
+  </si>
+  <si>
+    <t>999999999999</t>
+  </si>
+  <si>
+    <t>1000000000000</t>
+  </si>
+  <si>
+    <t>vip0-2</t>
+  </si>
+  <si>
+    <t>20000000</t>
+  </si>
+  <si>
+    <t>5000000</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>vip3-4</t>
+  </si>
+  <si>
+    <t>100000000</t>
+  </si>
+  <si>
+    <t>vip7 1万</t>
+  </si>
+  <si>
+    <t>35000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vip8 2万 </t>
+  </si>
+  <si>
+    <t>15000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vip9 3万 </t>
+  </si>
+  <si>
+    <t>vip5-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vip10  5万 </t>
+  </si>
+  <si>
+    <t>120000000</t>
+  </si>
+  <si>
+    <t>60000000</t>
+  </si>
+  <si>
+    <t>30000000</t>
+  </si>
+  <si>
+    <t>vip7-8</t>
+  </si>
+  <si>
+    <t>200000000</t>
+  </si>
+  <si>
+    <t>50000000</t>
+  </si>
+  <si>
+    <t>vip9-12</t>
+  </si>
+  <si>
+    <t>80000000</t>
+  </si>
+  <si>
+    <t>model_id</t>
+  </si>
+  <si>
+    <t>start_vip_level|开始vip等级</t>
+  </si>
+  <si>
+    <t>end_vip_level|结束vip等级</t>
+  </si>
+  <si>
+    <t>max_once_award|最大的单笔奖励</t>
+  </si>
+  <si>
+    <t>xxl_caishen_award</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxl_xiyou_award</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxl_sanguo_award</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>buyu_award</t>
-  </si>
-  <si>
-    <t>vip_set</t>
-  </si>
-  <si>
-    <t>xxl_shuihu_award</t>
-  </si>
-  <si>
-    <t>vip_set2</t>
-  </si>
-  <si>
-    <t>default_set</t>
-  </si>
-  <si>
-    <t>tantanle_award</t>
-  </si>
-  <si>
-    <t>为空不处理</t>
-  </si>
-  <si>
-    <t>游戏类型</t>
-  </si>
-  <si>
-    <t>zjd_award</t>
-  </si>
-  <si>
-    <t>by_award</t>
-  </si>
-  <si>
-    <t>model_id|模式id</t>
-  </si>
-  <si>
-    <t>permission_key</t>
-  </si>
-  <si>
-    <t>vip_deal_id|启用类型</t>
-  </si>
-  <si>
-    <t>max_award_deal_id</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>set_id</t>
-  </si>
-  <si>
-    <t>start_vip_level|vip等级</t>
-  </si>
-  <si>
-    <t>end_vip_level|vip等级</t>
-  </si>
-  <si>
-    <t>module_id</t>
-  </si>
-  <si>
-    <t>start_value|起始赢金值&gt;</t>
-  </si>
-  <si>
-    <t>end_value|结束赢金值&lt;=</t>
-  </si>
-  <si>
-    <t>discount|折扣</t>
-  </si>
-  <si>
-    <t>|VIP等级</t>
-  </si>
-  <si>
-    <t>|vip充值</t>
-  </si>
-  <si>
-    <t>999999999999</t>
-  </si>
-  <si>
-    <t>1000000000000</t>
-  </si>
-  <si>
-    <t>vip0-2</t>
-  </si>
-  <si>
-    <t>20000000</t>
-  </si>
-  <si>
-    <t>5000000</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>vip3-4</t>
-  </si>
-  <si>
-    <t>100000000</t>
-  </si>
-  <si>
-    <t>vip7 1万</t>
-  </si>
-  <si>
-    <t>35000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vip8 2万 </t>
-  </si>
-  <si>
-    <t>15000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vip9 3万 </t>
-  </si>
-  <si>
-    <t>vip5-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vip10  5万 </t>
-  </si>
-  <si>
-    <t>120000000</t>
-  </si>
-  <si>
-    <t>60000000</t>
-  </si>
-  <si>
-    <t>30000000</t>
-  </si>
-  <si>
-    <t>vip7-8</t>
-  </si>
-  <si>
-    <t>200000000</t>
-  </si>
-  <si>
-    <t>50000000</t>
-  </si>
-  <si>
-    <t>vip9-12</t>
-  </si>
-  <si>
-    <t>80000000</t>
-  </si>
-  <si>
-    <t>model_id</t>
-  </si>
-  <si>
-    <t>start_vip_level|开始vip等级</t>
-  </si>
-  <si>
-    <t>end_vip_level|结束vip等级</t>
-  </si>
-  <si>
-    <t>max_once_award|最大的单笔奖励</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_award</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>drt_cjj_little_game_discount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>xxl_caishen_award</t>
+    <t>drt_hlby_little_game_discount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>xxl_xiyou_award</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxl_sanguo_award</t>
+    <t>drt_byam_little_game_discount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -298,7 +312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -354,6 +368,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -668,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -724,13 +741,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -738,13 +755,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -752,13 +769,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -766,13 +783,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -780,7 +797,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -791,28 +808,37 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -824,10 +850,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -845,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F1" s="11"/>
     </row>
@@ -866,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D2" s="12">
         <v>3</v>
@@ -876,29 +902,63 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="12">
+        <v>4</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="12">
+        <v>4</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -911,7 +971,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -929,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1130,46 +1190,132 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>4</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="10">
+        <v>4</v>
+      </c>
+      <c r="E14" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>4</v>
+      </c>
+      <c r="C15" s="10">
+        <v>5</v>
+      </c>
+      <c r="D15" s="10">
+        <v>6</v>
+      </c>
+      <c r="E15" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>4</v>
+      </c>
+      <c r="C16" s="10">
+        <v>7</v>
+      </c>
+      <c r="D16" s="10">
+        <v>8</v>
+      </c>
+      <c r="E16" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>4</v>
+      </c>
+      <c r="C17" s="10">
+        <v>9</v>
+      </c>
+      <c r="D17" s="10">
+        <v>12</v>
+      </c>
+      <c r="E17" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43:E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1188,22 +1334,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -1217,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1237,13 +1383,13 @@
         <v>20000000</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1">
         <v>0.8</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1">
         <v>100</v>
@@ -1260,7 +1406,7 @@
         <v>5000000</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1">
         <v>0.9</v>
@@ -1280,7 +1426,7 @@
         <v>1000000</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1">
         <v>0.95</v>
@@ -1300,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1320,13 +1466,13 @@
         <v>100000000</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1">
         <v>0.8</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1">
         <v>5000</v>
@@ -1343,13 +1489,13 @@
         <v>35000000</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1">
         <v>0.9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -1363,13 +1509,13 @@
         <v>15000000</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1">
         <v>0.95</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -1383,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1403,16 +1549,16 @@
         <v>120000000</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1">
         <v>0.8</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1426,7 +1572,7 @@
         <v>60000000</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1">
         <v>0.9</v>
@@ -1443,7 +1589,7 @@
         <v>30000000</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1">
         <v>0.95</v>
@@ -1460,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1477,13 +1623,13 @@
         <v>200000000</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1">
         <v>0.8</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1497,7 +1643,7 @@
         <v>100000000</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1">
         <v>0.9</v>
@@ -1514,7 +1660,7 @@
         <v>50000000</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="1">
         <v>0.95</v>
@@ -1531,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1548,13 +1694,13 @@
         <v>200000000</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1">
         <v>0.8</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1565,10 +1711,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1">
         <v>0.9</v>
@@ -1582,10 +1728,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E21" s="1">
         <v>0.95</v>
@@ -1602,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1619,14 +1765,14 @@
         <v>20000000</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E23" s="16">
         <f>E3*0.9</f>
         <v>0.72000000000000008</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>33</v>
+      <c r="F23" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1642,13 +1788,13 @@
         <v>5000000</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E24" s="19">
-        <f t="shared" ref="E24:E42" si="0">E4*0.9</f>
+        <f t="shared" ref="E24:E62" si="0">E4*0.9</f>
         <v>0.81</v>
       </c>
-      <c r="F24" s="20"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
@@ -1663,13 +1809,13 @@
         <v>1000000</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E25" s="19">
         <f t="shared" si="0"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F25" s="20"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
@@ -1684,13 +1830,13 @@
         <v>0</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E26" s="19">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="F26" s="20"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
@@ -1705,14 +1851,14 @@
         <v>100000000</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E27" s="19">
         <f t="shared" si="0"/>
         <v>0.72000000000000008</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>37</v>
+      <c r="F27" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1728,13 +1874,13 @@
         <v>35000000</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E28" s="19">
         <f t="shared" si="0"/>
         <v>0.81</v>
       </c>
-      <c r="F28" s="20"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
@@ -1749,13 +1895,13 @@
         <v>15000000</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E29" s="19">
         <f t="shared" si="0"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F29" s="20"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
@@ -1770,13 +1916,13 @@
         <v>0</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E30" s="19">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="F30" s="20"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
@@ -1791,14 +1937,14 @@
         <v>120000000</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E31" s="19">
         <f t="shared" si="0"/>
         <v>0.72000000000000008</v>
       </c>
-      <c r="F31" s="20" t="s">
-        <v>44</v>
+      <c r="F31" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1814,13 +1960,13 @@
         <v>60000000</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E32" s="19">
         <f t="shared" si="0"/>
         <v>0.81</v>
       </c>
-      <c r="F32" s="20"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
@@ -1835,13 +1981,13 @@
         <v>30000000</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E33" s="19">
         <f t="shared" si="0"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F33" s="20"/>
+      <c r="F33" s="21"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
@@ -1856,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E34" s="19">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="F34" s="20"/>
+      <c r="F34" s="21"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
@@ -1877,14 +2023,14 @@
         <v>200000000</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E35" s="19">
         <f t="shared" si="0"/>
         <v>0.72000000000000008</v>
       </c>
-      <c r="F35" s="20" t="s">
-        <v>49</v>
+      <c r="F35" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1900,13 +2046,13 @@
         <v>100000000</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E36" s="19">
         <f t="shared" si="0"/>
         <v>0.81</v>
       </c>
-      <c r="F36" s="20"/>
+      <c r="F36" s="21"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -1921,13 +2067,13 @@
         <v>50000000</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E37" s="19">
         <f t="shared" si="0"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F37" s="20"/>
+      <c r="F37" s="21"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
@@ -1942,13 +2088,13 @@
         <v>0</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E38" s="19">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="F38" s="20"/>
+      <c r="F38" s="21"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -1963,14 +2109,14 @@
         <v>200000000</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E39" s="19">
         <f t="shared" si="0"/>
         <v>0.72000000000000008</v>
       </c>
-      <c r="F39" s="20" t="s">
-        <v>52</v>
+      <c r="F39" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1983,16 +2129,16 @@
         <v>11</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E40" s="19">
         <f t="shared" si="0"/>
         <v>0.81</v>
       </c>
-      <c r="F40" s="20"/>
+      <c r="F40" s="21"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
@@ -2004,16 +2150,16 @@
         <v>11</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E41" s="19">
         <f t="shared" si="0"/>
         <v>0.85499999999999998</v>
       </c>
-      <c r="F41" s="20"/>
+      <c r="F41" s="21"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
@@ -2028,18 +2174,453 @@
         <v>0</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E42" s="19">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="F42" s="20"/>
+      <c r="F42" s="21"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
+    <row r="43" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="15">
+        <v>42</v>
+      </c>
+      <c r="B43" s="20">
+        <v>12</v>
+      </c>
+      <c r="C43" s="15">
+        <v>20000000</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="20">
+        <f>E3*0.95</f>
+        <v>0.76</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="15">
+        <v>43</v>
+      </c>
+      <c r="B44" s="20">
+        <v>12</v>
+      </c>
+      <c r="C44" s="15">
+        <v>5000000</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="20">
+        <f t="shared" ref="E44:E62" si="1">E4*0.95</f>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F44" s="21"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="15">
+        <v>44</v>
+      </c>
+      <c r="B45" s="20">
+        <v>12</v>
+      </c>
+      <c r="C45" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="20">
+        <f t="shared" si="1"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F45" s="21"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="15">
+        <v>45</v>
+      </c>
+      <c r="B46" s="20">
+        <v>12</v>
+      </c>
+      <c r="C46" s="15">
+        <v>0</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="20">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+      <c r="F46" s="21"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="15">
+        <v>46</v>
+      </c>
+      <c r="B47" s="20">
+        <v>13</v>
+      </c>
+      <c r="C47" s="15">
+        <v>100000000</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="20">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="15">
+        <v>47</v>
+      </c>
+      <c r="B48" s="20">
+        <v>13</v>
+      </c>
+      <c r="C48" s="15">
+        <v>35000000</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="20">
+        <f t="shared" si="1"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F48" s="21"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="15">
+        <v>48</v>
+      </c>
+      <c r="B49" s="20">
+        <v>13</v>
+      </c>
+      <c r="C49" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="20">
+        <f t="shared" si="1"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F49" s="21"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="15">
+        <v>49</v>
+      </c>
+      <c r="B50" s="20">
+        <v>13</v>
+      </c>
+      <c r="C50" s="15">
+        <v>0</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="20">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+      <c r="F50" s="21"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="15">
+        <v>50</v>
+      </c>
+      <c r="B51" s="20">
+        <v>14</v>
+      </c>
+      <c r="C51" s="15">
+        <v>120000000</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="20">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="15">
+        <v>51</v>
+      </c>
+      <c r="B52" s="20">
+        <v>14</v>
+      </c>
+      <c r="C52" s="15">
+        <v>60000000</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="20">
+        <f t="shared" si="1"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F52" s="21"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="15">
+        <v>52</v>
+      </c>
+      <c r="B53" s="20">
+        <v>14</v>
+      </c>
+      <c r="C53" s="15">
+        <v>30000000</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="20">
+        <f t="shared" si="1"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F53" s="21"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="15">
+        <v>53</v>
+      </c>
+      <c r="B54" s="20">
+        <v>14</v>
+      </c>
+      <c r="C54" s="15">
+        <v>0</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="20">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+      <c r="F54" s="21"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="15">
+        <v>54</v>
+      </c>
+      <c r="B55" s="20">
+        <v>15</v>
+      </c>
+      <c r="C55" s="15">
+        <v>200000000</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="20">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="15">
+        <v>55</v>
+      </c>
+      <c r="B56" s="20">
+        <v>15</v>
+      </c>
+      <c r="C56" s="15">
+        <v>100000000</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="20">
+        <f t="shared" si="1"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F56" s="21"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="15">
+        <v>56</v>
+      </c>
+      <c r="B57" s="20">
+        <v>15</v>
+      </c>
+      <c r="C57" s="15">
+        <v>50000000</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="20">
+        <f t="shared" si="1"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F57" s="21"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="15">
+        <v>57</v>
+      </c>
+      <c r="B58" s="20">
+        <v>15</v>
+      </c>
+      <c r="C58" s="15">
+        <v>0</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="20">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+      <c r="F58" s="21"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="15">
+        <v>58</v>
+      </c>
+      <c r="B59" s="20">
+        <v>16</v>
+      </c>
+      <c r="C59" s="15">
+        <v>200000000</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="20">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="15">
+        <v>59</v>
+      </c>
+      <c r="B60" s="20">
+        <v>16</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="20">
+        <f t="shared" si="1"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F60" s="21"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="15">
+        <v>60</v>
+      </c>
+      <c r="B61" s="20">
+        <v>16</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="20">
+        <f t="shared" si="1"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F61" s="21"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="15">
+        <v>61</v>
+      </c>
+      <c r="B62" s="20">
+        <v>16</v>
+      </c>
+      <c r="C62" s="15">
+        <v>0</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" s="20">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+      <c r="F62" s="21"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="F59:F62"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="F31:F34"/>
@@ -2074,16 +2655,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/config_debug/auto_control_system_server.xlsx
+++ b/config_debug/auto_control_system_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -463,7 +463,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -472,13 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -541,7 +541,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -576,7 +576,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -954,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1014,7 +1014,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="21">
         <v>1</v>
@@ -1070,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E21"/>
+      <selection activeCell="A22" sqref="A22:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1445,33 +1445,158 @@
         <v>20</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="19">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19">
+        <v>5</v>
+      </c>
+      <c r="C22" s="19">
+        <v>0</v>
+      </c>
+      <c r="D22" s="19">
+        <v>1</v>
+      </c>
+      <c r="E22" s="19">
+        <v>21</v>
+      </c>
+    </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="A23" s="19">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19">
+        <v>5</v>
+      </c>
+      <c r="C23" s="19">
+        <v>2</v>
+      </c>
+      <c r="D23" s="19">
+        <v>2</v>
+      </c>
+      <c r="E23" s="19">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="A24" s="19">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19">
+        <v>5</v>
+      </c>
+      <c r="C24" s="19">
+        <v>3</v>
+      </c>
+      <c r="D24" s="19">
+        <v>3</v>
+      </c>
+      <c r="E24" s="19">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="19">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19">
+        <v>5</v>
+      </c>
+      <c r="C25" s="19">
+        <v>4</v>
+      </c>
+      <c r="D25" s="19">
+        <v>4</v>
+      </c>
+      <c r="E25" s="19">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="19">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19">
+        <v>5</v>
+      </c>
+      <c r="C26" s="19">
+        <v>5</v>
+      </c>
+      <c r="D26" s="19">
+        <v>5</v>
+      </c>
+      <c r="E26" s="19">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="A27" s="19">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19">
+        <v>5</v>
+      </c>
+      <c r="C27" s="19">
+        <v>6</v>
+      </c>
+      <c r="D27" s="19">
+        <v>6</v>
+      </c>
+      <c r="E27" s="19">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="19">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19">
+        <v>5</v>
+      </c>
+      <c r="C28" s="19">
+        <v>7</v>
+      </c>
+      <c r="D28" s="19">
+        <v>7</v>
+      </c>
+      <c r="E28" s="19">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="19">
+        <v>28</v>
+      </c>
+      <c r="B29" s="19">
+        <v>5</v>
+      </c>
+      <c r="C29" s="19">
+        <v>8</v>
+      </c>
+      <c r="D29" s="19">
+        <v>8</v>
+      </c>
+      <c r="E29" s="19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="19">
+        <v>29</v>
+      </c>
+      <c r="B30" s="19">
+        <v>5</v>
+      </c>
+      <c r="C30" s="19">
+        <v>9</v>
+      </c>
+      <c r="D30" s="19">
+        <v>12</v>
+      </c>
+      <c r="E30" s="19">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1484,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1941,7 +2066,7 @@
         <f>E3*0.85</f>
         <v>0.68</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="27" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="1"/>
@@ -1964,7 +2089,7 @@
         <f t="shared" ref="E24:E42" si="0">E4*0.85</f>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
@@ -1985,7 +2110,7 @@
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F25" s="22"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
@@ -2006,7 +2131,7 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F26" s="22"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
@@ -2027,7 +2152,7 @@
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="27" t="s">
         <v>44</v>
       </c>
       <c r="G27" s="1"/>
@@ -2050,7 +2175,7 @@
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="27"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
@@ -2071,7 +2196,7 @@
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F29" s="22"/>
+      <c r="F29" s="27"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
@@ -2092,7 +2217,7 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F30" s="22"/>
+      <c r="F30" s="27"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
@@ -2113,7 +2238,7 @@
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="27" t="s">
         <v>51</v>
       </c>
       <c r="G31" s="1"/>
@@ -2136,7 +2261,7 @@
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F32" s="22"/>
+      <c r="F32" s="27"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
@@ -2157,7 +2282,7 @@
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F33" s="22"/>
+      <c r="F33" s="27"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
@@ -2178,7 +2303,7 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F34" s="22"/>
+      <c r="F34" s="27"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
@@ -2199,7 +2324,7 @@
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="27" t="s">
         <v>56</v>
       </c>
       <c r="G35" s="1"/>
@@ -2222,7 +2347,7 @@
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F36" s="22"/>
+      <c r="F36" s="27"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -2243,7 +2368,7 @@
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F37" s="22"/>
+      <c r="F37" s="27"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
@@ -2264,7 +2389,7 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F38" s="22"/>
+      <c r="F38" s="27"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -2285,7 +2410,7 @@
         <f t="shared" si="0"/>
         <v>0.68</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G39" s="1"/>
@@ -2308,7 +2433,7 @@
         <f t="shared" si="0"/>
         <v>0.76500000000000001</v>
       </c>
-      <c r="F40" s="22"/>
+      <c r="F40" s="27"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
@@ -2329,7 +2454,7 @@
         <f t="shared" si="0"/>
         <v>0.8075</v>
       </c>
-      <c r="F41" s="22"/>
+      <c r="F41" s="27"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
@@ -2350,7 +2475,7 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="F42" s="22"/>
+      <c r="F42" s="27"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
@@ -2371,7 +2496,7 @@
         <f>E3</f>
         <v>0.8</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="F43" s="25" t="s">
         <v>61</v>
       </c>
       <c r="G43" s="1"/>
@@ -2394,7 +2519,7 @@
         <f t="shared" ref="E44:E62" si="1">E4</f>
         <v>0.9</v>
       </c>
-      <c r="F44" s="23"/>
+      <c r="F44" s="25"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
@@ -2415,7 +2540,7 @@
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="F45" s="23"/>
+      <c r="F45" s="25"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
@@ -2429,14 +2554,14 @@
       <c r="C46" s="12">
         <v>0</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="22" t="s">
         <v>81</v>
       </c>
       <c r="E46" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F46" s="23"/>
+      <c r="F46" s="25"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
@@ -2457,7 +2582,7 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="25" t="s">
         <v>64</v>
       </c>
       <c r="G47" s="1"/>
@@ -2480,7 +2605,7 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="F48" s="23"/>
+      <c r="F48" s="25"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
@@ -2501,7 +2626,7 @@
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="F49" s="23"/>
+      <c r="F49" s="25"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
@@ -2515,14 +2640,14 @@
       <c r="C50" s="12">
         <v>0</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="22" t="s">
         <v>80</v>
       </c>
       <c r="E50" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F50" s="23"/>
+      <c r="F50" s="25"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
@@ -2543,7 +2668,7 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="F51" s="24" t="s">
+      <c r="F51" s="26" t="s">
         <v>65</v>
       </c>
       <c r="G51" s="1"/>
@@ -2566,7 +2691,7 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="F52" s="24"/>
+      <c r="F52" s="26"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
@@ -2587,7 +2712,7 @@
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="F53" s="24"/>
+      <c r="F53" s="26"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
@@ -2601,14 +2726,14 @@
       <c r="C54" s="12">
         <v>0</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="22" t="s">
         <v>83</v>
       </c>
       <c r="E54" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F54" s="24"/>
+      <c r="F54" s="26"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
@@ -2629,7 +2754,7 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="F55" s="23" t="s">
+      <c r="F55" s="25" t="s">
         <v>67</v>
       </c>
       <c r="G55" s="1"/>
@@ -2652,7 +2777,7 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="F56" s="23"/>
+      <c r="F56" s="25"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
@@ -2666,14 +2791,14 @@
       <c r="C57" s="12">
         <v>50000000</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="22" t="s">
         <v>84</v>
       </c>
       <c r="E57" s="13">
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="F57" s="23"/>
+      <c r="F57" s="25"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
@@ -2687,14 +2812,14 @@
       <c r="C58" s="12">
         <v>0</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="22" t="s">
         <v>82</v>
       </c>
       <c r="E58" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F58" s="23"/>
+      <c r="F58" s="25"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
@@ -2715,7 +2840,7 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="25" t="s">
         <v>68</v>
       </c>
       <c r="G59" s="1"/>
@@ -2738,7 +2863,7 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="F60" s="23"/>
+      <c r="F60" s="25"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
@@ -2759,7 +2884,7 @@
         <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
-      <c r="F61" s="23"/>
+      <c r="F61" s="25"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
@@ -2773,14 +2898,14 @@
       <c r="C62" s="12">
         <v>0</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D62" s="22" t="s">
         <v>84</v>
       </c>
       <c r="E62" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F62" s="23"/>
+      <c r="F62" s="25"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
@@ -2800,7 +2925,7 @@
       <c r="E63" s="13">
         <v>0.8</v>
       </c>
-      <c r="F63" s="23" t="s">
+      <c r="F63" s="25" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2820,7 +2945,7 @@
       <c r="E64" s="13">
         <v>0.9</v>
       </c>
-      <c r="F64" s="23"/>
+      <c r="F64" s="25"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="12">
@@ -2838,7 +2963,7 @@
       <c r="E65" s="13">
         <v>0.95</v>
       </c>
-      <c r="F65" s="23"/>
+      <c r="F65" s="25"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="12">
@@ -2850,13 +2975,13 @@
       <c r="C66" s="12">
         <v>0</v>
       </c>
-      <c r="D66" s="27" t="s">
+      <c r="D66" s="22" t="s">
         <v>85</v>
       </c>
       <c r="E66" s="13">
         <v>1</v>
       </c>
-      <c r="F66" s="23"/>
+      <c r="F66" s="25"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="12">
@@ -2874,7 +2999,7 @@
       <c r="E67" s="13">
         <v>0.8</v>
       </c>
-      <c r="F67" s="23" t="s">
+      <c r="F67" s="25" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2894,7 +3019,7 @@
       <c r="E68" s="13">
         <v>0.9</v>
       </c>
-      <c r="F68" s="23"/>
+      <c r="F68" s="25"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="12">
@@ -2912,7 +3037,7 @@
       <c r="E69" s="13">
         <v>0.95</v>
       </c>
-      <c r="F69" s="23"/>
+      <c r="F69" s="25"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="12">
@@ -2924,13 +3049,13 @@
       <c r="C70" s="12">
         <v>0</v>
       </c>
-      <c r="D70" s="27" t="s">
+      <c r="D70" s="22" t="s">
         <v>86</v>
       </c>
       <c r="E70" s="13">
         <v>1</v>
       </c>
-      <c r="F70" s="23"/>
+      <c r="F70" s="25"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="12">
@@ -2948,7 +3073,7 @@
       <c r="E71" s="13">
         <v>0.8</v>
       </c>
-      <c r="F71" s="23" t="s">
+      <c r="F71" s="25" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2968,7 +3093,7 @@
       <c r="E72" s="13">
         <v>0.9</v>
       </c>
-      <c r="F72" s="23"/>
+      <c r="F72" s="25"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="12">
@@ -2986,7 +3111,7 @@
       <c r="E73" s="13">
         <v>0.95</v>
       </c>
-      <c r="F73" s="23"/>
+      <c r="F73" s="25"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="12">
@@ -2998,13 +3123,13 @@
       <c r="C74" s="12">
         <v>0</v>
       </c>
-      <c r="D74" s="27" t="s">
+      <c r="D74" s="22" t="s">
         <v>86</v>
       </c>
       <c r="E74" s="13">
         <v>1</v>
       </c>
-      <c r="F74" s="23"/>
+      <c r="F74" s="25"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="12">
@@ -3022,7 +3147,7 @@
       <c r="E75" s="13">
         <v>0.8</v>
       </c>
-      <c r="F75" s="23" t="s">
+      <c r="F75" s="25" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3042,7 +3167,7 @@
       <c r="E76" s="13">
         <v>0.9</v>
       </c>
-      <c r="F76" s="23"/>
+      <c r="F76" s="25"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="12">
@@ -3060,7 +3185,7 @@
       <c r="E77" s="13">
         <v>0.95</v>
       </c>
-      <c r="F77" s="23"/>
+      <c r="F77" s="25"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="12">
@@ -3072,13 +3197,13 @@
       <c r="C78" s="12">
         <v>0</v>
       </c>
-      <c r="D78" s="27" t="s">
+      <c r="D78" s="22" t="s">
         <v>86</v>
       </c>
       <c r="E78" s="13">
         <v>1</v>
       </c>
-      <c r="F78" s="23"/>
+      <c r="F78" s="25"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="17">
@@ -3094,9 +3219,10 @@
         <v>39</v>
       </c>
       <c r="E79" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F79" s="25" t="s">
+        <f>E43*0.95</f>
+        <v>0.76</v>
+      </c>
+      <c r="F79" s="23" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3114,9 +3240,10 @@
         <v>62</v>
       </c>
       <c r="E80" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="F80" s="25"/>
+        <f t="shared" ref="E80:E114" si="2">E44*0.95</f>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F80" s="23"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="17">
@@ -3132,9 +3259,10 @@
         <v>42</v>
       </c>
       <c r="E81" s="17">
-        <v>0.95</v>
-      </c>
-      <c r="F81" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F81" s="23"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="17">
@@ -3150,9 +3278,10 @@
         <v>43</v>
       </c>
       <c r="E82" s="17">
-        <v>1</v>
-      </c>
-      <c r="F82" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F82" s="23"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="17">
@@ -3162,16 +3291,17 @@
         <f>B79+1</f>
         <v>22</v>
       </c>
-      <c r="C83" s="17">
-        <v>40000000</v>
+      <c r="C83" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="D83" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E83" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F83" s="25" t="s">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="F83" s="23" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3183,16 +3313,17 @@
         <f>B80+1</f>
         <v>22</v>
       </c>
-      <c r="C84" s="17">
-        <v>20000000</v>
-      </c>
-      <c r="D84" s="17">
-        <v>40000000</v>
+      <c r="C84" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="E84" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="F84" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F84" s="23"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="17">
@@ -3205,13 +3336,14 @@
       <c r="C85" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D85" s="17">
-        <v>20000000</v>
+      <c r="D85" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="E85" s="17">
-        <v>0.95</v>
-      </c>
-      <c r="F85" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F85" s="23"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="17">
@@ -3228,16 +3360,17 @@
         <v>62</v>
       </c>
       <c r="E86" s="17">
-        <v>1</v>
-      </c>
-      <c r="F86" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F86" s="23"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="17">
         <v>86</v>
       </c>
       <c r="B87" s="17">
-        <f t="shared" ref="B87:B114" si="2">B83+1</f>
+        <f t="shared" ref="B87:B114" si="3">B83+1</f>
         <v>23</v>
       </c>
       <c r="C87" s="17" t="s">
@@ -3247,9 +3380,10 @@
         <v>39</v>
       </c>
       <c r="E87" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F87" s="26" t="s">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="F87" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3258,7 +3392,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="C88" s="17" t="s">
@@ -3268,16 +3402,17 @@
         <v>45</v>
       </c>
       <c r="E88" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="F88" s="26"/>
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F88" s="24"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="17">
         <v>88</v>
       </c>
       <c r="B89" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="C89" s="17" t="s">
@@ -3287,16 +3422,17 @@
         <v>58</v>
       </c>
       <c r="E89" s="17">
-        <v>0.95</v>
-      </c>
-      <c r="F89" s="26"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F89" s="24"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="17">
         <v>89</v>
       </c>
       <c r="B90" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="C90" s="17">
@@ -3306,16 +3442,17 @@
         <v>66</v>
       </c>
       <c r="E90" s="17">
-        <v>1</v>
-      </c>
-      <c r="F90" s="26"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F90" s="24"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="17">
         <v>90</v>
       </c>
       <c r="B91" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="C91" s="17">
@@ -3325,9 +3462,10 @@
         <v>39</v>
       </c>
       <c r="E91" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F91" s="25" t="s">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="F91" s="23" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3336,7 +3474,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="C92" s="17">
@@ -3346,16 +3484,17 @@
         <v>57</v>
       </c>
       <c r="E92" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="F92" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F92" s="23"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="17">
         <v>92</v>
       </c>
       <c r="B93" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="C93" s="17">
@@ -3365,16 +3504,17 @@
         <v>45</v>
       </c>
       <c r="E93" s="17">
-        <v>0.95</v>
-      </c>
-      <c r="F93" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F93" s="23"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="17">
         <v>93</v>
       </c>
       <c r="B94" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="C94" s="17">
@@ -3384,16 +3524,17 @@
         <v>58</v>
       </c>
       <c r="E94" s="17">
-        <v>1</v>
-      </c>
-      <c r="F94" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F94" s="23"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="17">
         <v>94</v>
       </c>
       <c r="B95" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="C95" s="17">
@@ -3403,9 +3544,10 @@
         <v>39</v>
       </c>
       <c r="E95" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F95" s="25" t="s">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="F95" s="23" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3414,7 +3556,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="C96" s="17" t="s">
@@ -3424,16 +3566,17 @@
         <v>69</v>
       </c>
       <c r="E96" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="F96" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F96" s="23"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="17">
         <v>96</v>
       </c>
       <c r="B97" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="C97" s="17" t="s">
@@ -3443,16 +3586,17 @@
         <v>57</v>
       </c>
       <c r="E97" s="17">
-        <v>0.95</v>
-      </c>
-      <c r="F97" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F97" s="23"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="17">
         <v>97</v>
       </c>
       <c r="B98" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="C98" s="17">
@@ -3462,16 +3606,17 @@
         <v>45</v>
       </c>
       <c r="E98" s="17">
-        <v>1</v>
-      </c>
-      <c r="F98" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F98" s="23"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="17">
         <v>98</v>
       </c>
       <c r="B99" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="C99" s="17">
@@ -3481,9 +3626,10 @@
         <v>39</v>
       </c>
       <c r="E99" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F99" s="25" t="s">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="F99" s="23" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3492,7 +3638,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="C100" s="17">
@@ -3502,16 +3648,17 @@
         <v>1000000000</v>
       </c>
       <c r="E100" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="F100" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F100" s="23"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="17">
         <v>100</v>
       </c>
       <c r="B101" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="C101" s="17" t="s">
@@ -3521,16 +3668,17 @@
         <v>500000000</v>
       </c>
       <c r="E101" s="17">
-        <v>0.95</v>
-      </c>
-      <c r="F101" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F101" s="23"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="17">
         <v>101</v>
       </c>
       <c r="B102" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="C102" s="17">
@@ -3540,16 +3688,17 @@
         <v>71</v>
       </c>
       <c r="E102" s="17">
-        <v>1</v>
-      </c>
-      <c r="F102" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F102" s="23"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="17">
         <v>102</v>
       </c>
       <c r="B103" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="C103" s="17">
@@ -3559,9 +3708,10 @@
         <v>39</v>
       </c>
       <c r="E103" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F103" s="25" t="s">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="F103" s="23" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3570,7 +3720,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="C104" s="17">
@@ -3580,16 +3730,17 @@
         <v>1500000000</v>
       </c>
       <c r="E104" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="F104" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F104" s="23"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="17">
         <v>104</v>
       </c>
       <c r="B105" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="C105" s="17" t="s">
@@ -3599,16 +3750,17 @@
         <v>1000000000</v>
       </c>
       <c r="E105" s="17">
-        <v>0.95</v>
-      </c>
-      <c r="F105" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F105" s="23"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="17">
         <v>105</v>
       </c>
       <c r="B106" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="C106" s="17">
@@ -3618,16 +3770,17 @@
         <v>73</v>
       </c>
       <c r="E106" s="17">
-        <v>1</v>
-      </c>
-      <c r="F106" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F106" s="23"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="17">
         <v>106</v>
       </c>
       <c r="B107" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="C107" s="17">
@@ -3637,9 +3790,10 @@
         <v>39</v>
       </c>
       <c r="E107" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F107" s="25" t="s">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="F107" s="23" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3648,7 +3802,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="C108" s="17">
@@ -3658,16 +3812,17 @@
         <v>2000000000</v>
       </c>
       <c r="E108" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="F108" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F108" s="23"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="17">
         <v>108</v>
       </c>
       <c r="B109" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="C109" s="17" t="s">
@@ -3677,16 +3832,17 @@
         <v>1000000000</v>
       </c>
       <c r="E109" s="17">
-        <v>0.95</v>
-      </c>
-      <c r="F109" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F109" s="23"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="17">
         <v>109</v>
       </c>
       <c r="B110" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="C110" s="17">
@@ -3696,16 +3852,17 @@
         <v>73</v>
       </c>
       <c r="E110" s="17">
-        <v>1</v>
-      </c>
-      <c r="F110" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F110" s="23"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="17">
         <v>110</v>
       </c>
       <c r="B111" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="C111" s="17">
@@ -3715,9 +3872,10 @@
         <v>39</v>
       </c>
       <c r="E111" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="F111" s="25" t="s">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="F111" s="23" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3726,7 +3884,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="C112" s="17">
@@ -3736,16 +3894,17 @@
         <v>3000000000</v>
       </c>
       <c r="E112" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="F112" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F112" s="23"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="17">
         <v>112</v>
       </c>
       <c r="B113" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="C113" s="17" t="s">
@@ -3755,16 +3914,17 @@
         <v>2000000000</v>
       </c>
       <c r="E113" s="17">
-        <v>0.95</v>
-      </c>
-      <c r="F113" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F113" s="23"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="17">
         <v>113</v>
       </c>
       <c r="B114" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="C114" s="17">
@@ -3774,12 +3934,28 @@
         <v>73</v>
       </c>
       <c r="E114" s="17">
-        <v>1</v>
-      </c>
-      <c r="F114" s="25"/>
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="F114" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="F79:F82"/>
     <mergeCell ref="F103:F106"/>
     <mergeCell ref="F107:F110"/>
     <mergeCell ref="F111:F114"/>
@@ -3788,25 +3964,10 @@
     <mergeCell ref="F91:F94"/>
     <mergeCell ref="F95:F98"/>
     <mergeCell ref="F99:F102"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="F79:F82"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="F39:F42"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
